--- a/Parcel-Test-Features/Report-Writing/bin/test_data/Report Writing Test Data.xlsx
+++ b/Parcel-Test-Features/Report-Writing/bin/test_data/Report Writing Test Data.xlsx
@@ -480,7 +480,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,16 +500,14 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>1413680</v>
+        <v>1408798</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>1419524</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
